--- a/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_66_.xlsx
+++ b/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_66_.xlsx
@@ -564,7 +564,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Gene</t>
+          <t>Simulation</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -589,7 +589,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[2.4159693096423305, 2.7782360306449863]</t>
+          <t>[2.4147576832382263, 2.7794476570490905]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -617,14 +617,14 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[-0.01596133196006866, 0.23397861677166842]</t>
+          <t>[-0.0159325793548577, 0.23394986416645747]</t>
         </is>
       </c>
       <c r="U2" t="n">
-        <v>0.08574454392680897</v>
+        <v>0.08567481195310744</v>
       </c>
       <c r="V2" t="n">
-        <v>0.08574454392680897</v>
+        <v>0.08567481195310744</v>
       </c>
       <c r="W2" t="n">
         <v>18.00406406406454</v>
